--- a/biology/Botanique/Moltkia/Moltkia.xlsx
+++ b/biology/Botanique/Moltkia/Moltkia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moltkia est un genre de plantes de la famille des Boraginacées originaires d'Europe méridionale et d'Asie occidentale. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un genre de sous-arbrisseaux en forme de touffe, vivaces, caducs et de petite taille - de 20 à 100 cm selon les espèces -.
 Les fleurs, portées par des cymes scorpioïdes terminales, généralement de couleur bleue, sont tubulaires campanulées, à cinq pétales sans pilosité, cinq étamines dépassant légèrement la corolle, un pistil très largement exsert et des carpelles à deux ovules (caractéristiques assez générales de la famille).
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est localisé dans les régions méditerranéennes (Italie, Balkans), en Asie Mineure, dans le Caucase et en Sibérie occidentale. 
 Il s'agit d'espèces de terrains ensoleillés et secs.
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (International Plant Names Index), Tropicos (Index du Jardin botanique du Missouri) et du site The plant list à la date de juin 2012, complétée des indications de la littérature en référence. Les espèces conservées actuellement dans le genre sont en caractères gras :
 Moltkia anatolica Boiss. (1849)
@@ -591,7 +609,7 @@
 Moltkia gypsacea Rech.f. &amp; Aellen (1950)
 Moltkia × intermedia (Froebel) J.Ingram (1958) - synonyme : Lithospermum intermedium Froebel
 Moltkia × kemal-paschii Bornm. (1931) - hybride de Moltkia coerulea et Moltkia aurea
-Moltkia libanotica Zucc. (1843) : voir Solenanthus stamineus (Desf.) Wettst.[1]
+Moltkia libanotica Zucc. (1843) : voir Solenanthus stamineus (Desf.) Wettst.
 Moltkia longiflora (Bertol.) Wettst. (1918) - synonyme : Echium longiflora Bertol.
 Moltkia neubaueri Rech.f. (1951)
 Moltkia parviflora (Decne) C.B.Clarke (1883) : voir Pseudomertensia parviflora (Decne.) Riedl in Rech. - synonymes : Craniospermum parviflorum Decne., Mertensia exserta I.M.Johnst.
@@ -628,12 +646,14 @@
           <t>Historique du genre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit une première fois en 1817 par Johann Georg Christian Lehmann avec deux espèces : Moltkia coerulea et Moltkia punctata[2]
-Il a dédié le genre aux deux bienfaiteurs de l'actuel musée d'histoire naturelle de Copenhague, le comte Adam Gottlob Moltke (1710 - 1792), donateur de ses collections botaniques et zoologiques, et le comte Joachim Godske Moltke (1746-1818), fils du précédent, ministre des postes du Danemark et fondateur de l'université, base du musée zoologique (« Det grevelige Moltke’ske Universitetet tilhørende Zoologiske Museum »)[3].
-Pierre Edmond Boissier crée, en 1879, la section Eumoltkia et la section Lithospermoides différenciées par le caractère glabre ou non des fleurs[4].
-En 1953, Ivan Murray Johnston reprend complètement le genre en distinguant deux sections : Eumoltkia Boiss., comprenant Moltkia aurea, Moltkia coerula, Moltkia longiflora et Echianthus (Viv.) I.M.Johnston, sur la base de celle du genre Lithospermum définie par Domenico Viviani en 1847[5] comprenant Moltkia doerfleri, Moltkia petraea, Moltkia suffruticosa[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit une première fois en 1817 par Johann Georg Christian Lehmann avec deux espèces : Moltkia coerulea et Moltkia punctata
+Il a dédié le genre aux deux bienfaiteurs de l'actuel musée d'histoire naturelle de Copenhague, le comte Adam Gottlob Moltke (1710 - 1792), donateur de ses collections botaniques et zoologiques, et le comte Joachim Godske Moltke (1746-1818), fils du précédent, ministre des postes du Danemark et fondateur de l'université, base du musée zoologique (« Det grevelige Moltke’ske Universitetet tilhørende Zoologiske Museum »).
+Pierre Edmond Boissier crée, en 1879, la section Eumoltkia et la section Lithospermoides différenciées par le caractère glabre ou non des fleurs.
+En 1953, Ivan Murray Johnston reprend complètement le genre en distinguant deux sections : Eumoltkia Boiss., comprenant Moltkia aurea, Moltkia coerula, Moltkia longiflora et Echianthus (Viv.) I.M.Johnston, sur la base de celle du genre Lithospermum définie par Domenico Viviani en 1847 comprenant Moltkia doerfleri, Moltkia petraea, Moltkia suffruticosa.
 </t>
         </is>
       </c>
@@ -662,7 +682,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est placé dans la tribu des Lithospermeae de la sous-famille des Boraginoideae de la famille des Boraginacées. Il est proche des genres Echium et Onosma.
 </t>
@@ -693,7 +715,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale utilisation des plantes de ce genre est ornementale. Quelques variétés horticoles ont été créées et diffusées dans les pays à climat tempéré.
 </t>
